--- a/templates/dataplant/MIAPPE_-_Biological_material.xlsx
+++ b/templates/dataplant/MIAPPE_-_Biological_material.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD61D7A-588D-4ECA-8F13-D37A726110C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEC8051-3A71-4198-8704-70C82B4AF93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0F33DF36-A4CC-4604-A18D-61BD077FEF27}"/>
   </bookViews>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="107">
   <si>
     <t>Source Name</t>
   </si>
@@ -403,9 +403,6 @@
     <t>MIAPPE</t>
   </si>
   <si>
-    <t>biological material</t>
-  </si>
-  <si>
     <t>Dörpholz</t>
   </si>
   <si>
@@ -446,6 +443,12 @@
   </si>
   <si>
     <t>MIAPPE - Biological material</t>
+  </si>
+  <si>
+    <t>Biological Material</t>
+  </si>
+  <si>
+    <t>MIAPPE:0039</t>
   </si>
 </sst>
 </file>
@@ -1696,7 +1699,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1719,7 +1722,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1727,7 +1730,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1792,10 +1795,10 @@
         <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1803,8 +1806,11 @@
         <v>14</v>
       </c>
       <c r="B13" s="6"/>
+      <c r="C13" t="s">
+        <v>106</v>
+      </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1824,13 +1830,13 @@
         <v>17</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1838,13 +1844,13 @@
         <v>18</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1858,13 +1864,13 @@
         <v>20</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1890,13 +1896,13 @@
         <v>24</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">

--- a/templates/dataplant/MIAPPE_-_Biological_material.xlsx
+++ b/templates/dataplant/MIAPPE_-_Biological_material.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEC8051-3A71-4198-8704-70C82B4AF93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2323D45-25EA-4C63-A196-75FDA5516D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0F33DF36-A4CC-4604-A18D-61BD077FEF27}"/>
   </bookViews>
   <sheets>
     <sheet name="biological_material" sheetId="1" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1699,7 +1699,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
